--- a/Stocks/BAJAJFINSV.xlsx
+++ b/Stocks/BAJAJFINSV.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>4582.583333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>5015.0514434390061</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>4874.8345691799586</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>66.951620843605923</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>5.6000000000003638</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>115.60000000000036</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>4.8442906574397461E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>4629.3274999068162</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>213.70218911279335</v>
       </c>
       <c r="Y67">
         <v>175.95238060350542</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>5557</v>
+      </c>
+      <c r="D83">
+        <v>5630</v>
+      </c>
+      <c r="E83">
+        <v>5530.05</v>
+      </c>
+      <c r="F83">
+        <v>5578</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>5579.3499999999995</v>
+      </c>
+      <c r="H83">
+        <v>5472.5033256751012</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>5433.3697592349108</v>
+      </c>
+      <c r="K83">
+        <v>5270.5183264759216</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>78.836323545183546</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>47.949999999999818</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>99.949999999999818</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.47973986993496653</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>5313.9696299822699</v>
+      </c>
+      <c r="W83">
+        <v>5111.4808655735869</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>202.48876440868298</v>
+      </c>
+      <c r="Y83">
+        <v>198.83895677777249</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>5575</v>
+      </c>
+      <c r="D84">
+        <v>5583.6</v>
+      </c>
+      <c r="E84">
+        <v>5425.5</v>
+      </c>
+      <c r="F84">
+        <v>5431.1</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>5480.0666666666666</v>
+      </c>
+      <c r="H84">
+        <v>5476.2849961708835</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>5466.7542571827089</v>
+      </c>
+      <c r="K84">
+        <v>5304.9586983701611</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>56.843819288723409</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>5.6000000000003638</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>158.10000000000036</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>3.5420619860849788E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>5331.9896869080749</v>
+      </c>
+      <c r="W84">
+        <v>5135.1563570125809</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>196.83332989549399</v>
+      </c>
+      <c r="Y84">
+        <v>198.4378314013168</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>5499</v>
+      </c>
+      <c r="D85">
+        <v>5586.95</v>
+      </c>
+      <c r="E85">
+        <v>5450</v>
+      </c>
+      <c r="F85">
+        <v>5494.3</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>5510.416666666667</v>
+      </c>
+      <c r="H85">
+        <v>5493.3508314187748</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>5493.4644222532179</v>
+      </c>
+      <c r="K85">
+        <v>5337.1900987323479</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>62.47358919864444</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>44.300000000000182</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>136.94999999999982</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.32347572106608424</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>5356.9605043068323</v>
+      </c>
+      <c r="W85">
+        <v>5161.7595898264635</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>195.20091448036874</v>
+      </c>
+      <c r="Y85">
+        <v>197.79044801712718</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>5490</v>
+      </c>
+      <c r="D86">
+        <v>5540</v>
+      </c>
+      <c r="E86">
+        <v>5455.55</v>
+      </c>
+      <c r="F86">
+        <v>5518.95</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>5504.833333333333</v>
+      </c>
+      <c r="H86">
+        <v>5499.0920823760534</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>5503.8056617525026</v>
+      </c>
+      <c r="K86">
+        <v>5363.4922990140485</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>64.717554709411601</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>63.399999999999636</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>84.449999999999818</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.75074008288928096</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>5381.8819651827043</v>
+      </c>
+      <c r="W86">
+        <v>5188.2181387282071</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>193.66382645449721</v>
+      </c>
+      <c r="Y86">
+        <v>196.96512370460118</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>5530</v>
+      </c>
+      <c r="D87">
+        <v>5573</v>
+      </c>
+      <c r="E87">
+        <v>5480.1</v>
+      </c>
+      <c r="F87">
+        <v>5486</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>5513.0333333333328</v>
+      </c>
+      <c r="H87">
+        <v>5506.0627078546931</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>5519.1821813630577</v>
+      </c>
+      <c r="K87">
+        <v>5389.405121455371</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>58.83872462511146</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>5.8999999999996362</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>92.899999999999636</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>6.3509149623247135E-2</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>5397.9001243853654</v>
+      </c>
+      <c r="W87">
+        <v>5210.2760543779696</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>187.62407000739586</v>
+      </c>
+      <c r="Y87">
+        <v>195.09691296516013</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>5495</v>
+      </c>
+      <c r="D88">
+        <v>5495</v>
+      </c>
+      <c r="E88">
+        <v>5345.05</v>
+      </c>
+      <c r="F88">
+        <v>5380</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>5406.6833333333334</v>
+      </c>
+      <c r="H88">
+        <v>5456.3730205940137</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>5513.8083632823782</v>
+      </c>
+      <c r="K88">
+        <v>5379.5484277986216</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>43.096362897832726</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>34.949999999999818</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>149.94999999999982</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.23307769256418714</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>5395.1462590953088</v>
+      </c>
+      <c r="W88">
+        <v>5222.8481984981199</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>172.29806059718885</v>
+      </c>
+      <c r="Y88">
+        <v>190.53714249156587</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>5401</v>
+      </c>
+      <c r="D89">
+        <v>5444.4</v>
+      </c>
+      <c r="E89">
+        <v>5374.2</v>
+      </c>
+      <c r="F89">
+        <v>5400</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>5406.2</v>
+      </c>
+      <c r="H89">
+        <v>5431.2865102970063</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>5498.3842825529609</v>
+      </c>
+      <c r="K89">
+        <v>5378.3598882878168</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>46.473945743695189</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>25.800000000000182</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>70.199999999999818</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.36752136752137105</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>5395.8929884652616</v>
+      </c>
+      <c r="W89">
+        <v>5235.9705541649255</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>159.92243430033614</v>
+      </c>
+      <c r="Y89">
+        <v>184.41420085331993</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>5389.9</v>
+      </c>
+      <c r="D90">
+        <v>5520</v>
+      </c>
+      <c r="E90">
+        <v>5352.3</v>
+      </c>
+      <c r="F90">
+        <v>5450</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>5440.7666666666664</v>
+      </c>
+      <c r="H90">
+        <v>5436.0265884818364</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>5503.1877753189692</v>
+      </c>
+      <c r="K90">
+        <v>5372.568802001635</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>54.848930868590962</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>97.699999999999818</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>167.69999999999982</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.58258795468097746</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>5404.2171440859902</v>
+      </c>
+      <c r="W90">
+        <v>5251.8245871897461</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>152.39255689624406</v>
+      </c>
+      <c r="Y90">
+        <v>178.00987206190476</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>5500</v>
+      </c>
+      <c r="D91">
+        <v>5650</v>
+      </c>
+      <c r="E91">
+        <v>5460</v>
+      </c>
+      <c r="F91">
+        <v>5635</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>5581.666666666667</v>
+      </c>
+      <c r="H91">
+        <v>5508.8466275742521</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>5535.812714136976</v>
+      </c>
+      <c r="K91">
+        <v>5391.9979571123831</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>73.805016975482857</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>175</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>190</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V91">
+        <v>5439.7221988419915</v>
+      </c>
+      <c r="W91">
+        <v>5280.2079511016163</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>159.51424774037514</v>
+      </c>
+      <c r="Y91">
+        <v>174.31074719759883</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>5665</v>
+      </c>
+      <c r="D92">
+        <v>5680</v>
+      </c>
+      <c r="E92">
+        <v>5550</v>
+      </c>
+      <c r="F92">
+        <v>5594.8</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>5608.2666666666664</v>
+      </c>
+      <c r="H92">
+        <v>5558.5566471204593</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>5567.8543332176478</v>
+      </c>
+      <c r="K92">
+        <v>5427.1095221985206</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>66.250071671482061</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>44.800000000000182</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>130</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.34461538461538599</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>5463.5803220970702</v>
+      </c>
+      <c r="W92">
+        <v>5303.5110658348303</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>160.06925626223983</v>
+      </c>
+      <c r="Y92">
+        <v>171.46244901052702</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>5649</v>
+      </c>
+      <c r="D93">
+        <v>5790</v>
+      </c>
+      <c r="E93">
+        <v>5620</v>
+      </c>
+      <c r="F93">
+        <v>5733.35</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>5714.45</v>
+      </c>
+      <c r="H93">
+        <v>5636.5033235602295</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>5617.2200369470593</v>
+      </c>
+      <c r="K93">
+        <v>5469.9740728210718</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>76.578770592511546</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>113.35000000000036</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>170</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.66676470588235504</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>5505.0833494667513</v>
+      </c>
+      <c r="W93">
+        <v>5335.350986884102</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>169.73236258264933</v>
+      </c>
+      <c r="Y93">
+        <v>171.1164317249515</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>5786</v>
+      </c>
+      <c r="D94">
+        <v>5786</v>
+      </c>
+      <c r="E94">
+        <v>5660</v>
+      </c>
+      <c r="F94">
+        <v>5676</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>5707.333333333333</v>
+      </c>
+      <c r="H94">
+        <v>5671.9183284467817</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>5654.7266954032684</v>
+      </c>
+      <c r="K94">
+        <v>5512.2020566386118</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>66.110392418078945</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>126</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.12698412698412698</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>5531.3782187795587</v>
+      </c>
+      <c r="W94">
+        <v>5360.584247114909</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>170.79397166464969</v>
+      </c>
+      <c r="Y94">
+        <v>171.05193971289114</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>5711</v>
+      </c>
+      <c r="D95">
+        <v>5788.3</v>
+      </c>
+      <c r="E95">
+        <v>5678.9</v>
+      </c>
+      <c r="F95">
+        <v>5720</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>5729.0666666666666</v>
+      </c>
+      <c r="H95">
+        <v>5700.4924975567246</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>5684.4096519803197</v>
+      </c>
+      <c r="K95">
+        <v>5549.2460440522536</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>70.038343747054171</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>41.100000000000364</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>109.40000000000055</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.37568555758683875</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>5560.3969543519343</v>
+      </c>
+      <c r="W95">
+        <v>5387.2076362175085</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>173.18931813442578</v>
+      </c>
+      <c r="Y95">
+        <v>171.47941539719807</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>5775</v>
+      </c>
+      <c r="D96">
+        <v>5775</v>
+      </c>
+      <c r="E96">
+        <v>5660.1</v>
+      </c>
+      <c r="F96">
+        <v>5695</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>5710.0333333333328</v>
+      </c>
+      <c r="H96">
+        <v>5705.2629154450287</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>5704.5408404291375</v>
+      </c>
+      <c r="K96">
+        <v>5573.8802564850866</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>64.711404668720604</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>34.899999999999636</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>114.89999999999964</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.30374238468233028</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>5581.1051152208674</v>
+      </c>
+      <c r="W96">
+        <v>5410.0070705717671</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>171.0980446491003</v>
+      </c>
+      <c r="Y96">
+        <v>171.4031412475785</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>5674.9</v>
+      </c>
+      <c r="D97">
+        <v>5720</v>
+      </c>
+      <c r="E97">
+        <v>5620.3</v>
+      </c>
+      <c r="F97">
+        <v>5671.25</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>5670.5166666666664</v>
+      </c>
+      <c r="H97">
+        <v>5687.889791055848</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>5707.9762092226629</v>
+      </c>
+      <c r="K97">
+        <v>5584.1957550439565</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>59.350932701881533</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>50.949999999999818</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>99.699999999999818</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.51103309929789276</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>5594.973559033042</v>
+      </c>
+      <c r="W97">
+        <v>5429.358398677562</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>165.61516035547993</v>
+      </c>
+      <c r="Y97">
+        <v>170.24554506915879</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>5690</v>
+      </c>
+      <c r="D98">
+        <v>5725</v>
+      </c>
+      <c r="E98">
+        <v>5607.3</v>
+      </c>
+      <c r="F98">
+        <v>5640</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>5657.4333333333334</v>
+      </c>
+      <c r="H98">
+        <v>5672.6615621945912</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>5711.7592738398489</v>
+      </c>
+      <c r="K98">
+        <v>5589.3300317008552</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>52.234302163556393</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>32.699999999999818</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>117.69999999999982</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.27782497875955708</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>5601.9007037971896</v>
+      </c>
+      <c r="W98">
+        <v>5444.9614802570022</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>156.93922354018741</v>
+      </c>
+      <c r="Y98">
+        <v>167.58428076336452</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>5640</v>
+      </c>
+      <c r="D99">
+        <v>5673.8</v>
+      </c>
+      <c r="E99">
+        <v>5600</v>
+      </c>
+      <c r="F99">
+        <v>5663.7</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>5645.833333333333</v>
+      </c>
+      <c r="H99">
+        <v>5659.2474477639626</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>5703.323879653216</v>
+      </c>
+      <c r="K99">
+        <v>5591.7011357673318</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>57.109742665999086</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>63.699999999999818</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>73.800000000000182</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.86314363143630979</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>5611.4082878283916</v>
+      </c>
+      <c r="W99">
+        <v>5461.1643335712979</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>150.24395425709372</v>
+      </c>
+      <c r="Y99">
+        <v>164.11621546211035</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>5670</v>
+      </c>
+      <c r="D100">
+        <v>5675</v>
+      </c>
+      <c r="E100">
+        <v>5587.95</v>
+      </c>
+      <c r="F100">
+        <v>5607</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>5623.3166666666666</v>
+      </c>
+      <c r="H100">
+        <v>5641.2820572153141</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>5697.0296841747231</v>
+      </c>
+      <c r="K100">
+        <v>5590.8675500412583</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>43.75418425370848</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>19.050000000000182</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>87.050000000000182</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.21883974727168456</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>5610.7300897009463</v>
+      </c>
+      <c r="W100">
+        <v>5471.9669755289797</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>138.76311417196666</v>
+      </c>
+      <c r="Y100">
+        <v>159.04559520408162</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>5606</v>
+      </c>
+      <c r="D101">
+        <v>5620</v>
+      </c>
+      <c r="E101">
+        <v>5442.3</v>
+      </c>
+      <c r="F101">
+        <v>5469</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>5510.4333333333334</v>
+      </c>
+      <c r="H101">
+        <v>5575.8576952743242</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>5679.9119765803398</v>
+      </c>
+      <c r="K101">
+        <v>5557.852538920979</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>25.565233378160436</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>26.699999999999818</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>177.69999999999982</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.15025323579065755</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>5588.925460516185</v>
+      </c>
+      <c r="W101">
+        <v>5471.7471995638698</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>117.17826095231521</v>
+      </c>
+      <c r="Y101">
+        <v>150.67212835372834</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>5440.1</v>
+      </c>
+      <c r="D102">
+        <v>5459</v>
+      </c>
+      <c r="E102">
+        <v>5200</v>
+      </c>
+      <c r="F102">
+        <v>5235</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>5298</v>
+      </c>
+      <c r="H102">
+        <v>5436.9288476371621</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>5630.8204262291529</v>
+      </c>
+      <c r="K102">
+        <v>5478.3297524940945</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>13.590435137514001</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>35</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>259</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>5534.4753896675411</v>
+      </c>
+      <c r="W102">
+        <v>5454.2103699665458</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>80.265019700995254</v>
+      </c>
+      <c r="Y102">
+        <v>136.59070662318172</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="35"/>
+        <v>5429.4500000000007</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="36"/>
+        <v>5360.05</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="37"/>
+        <v>5329.5</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="38"/>
+        <v>5298.9500000000007</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>5230</v>
+      </c>
+      <c r="D103">
+        <v>5234.8</v>
+      </c>
+      <c r="E103">
+        <v>5001.75</v>
+      </c>
+      <c r="F103">
+        <v>5107</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>5114.5166666666664</v>
+      </c>
+      <c r="H103">
+        <v>5275.7227571519143</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>5542.8158870671186</v>
+      </c>
+      <c r="K103">
+        <v>5372.4231408287405</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>10.293642397155157</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>105.25</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>233.05000000000018</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.45161982407208717</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>5468.7099451033037</v>
+      </c>
+      <c r="W103">
+        <v>5428.4910833023569</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>40.218861800946797</v>
+      </c>
+      <c r="Y103">
+        <v>117.31633765873474</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>5100</v>
+      </c>
+      <c r="D104">
+        <v>5255.05</v>
+      </c>
+      <c r="E104">
+        <v>5005</v>
+      </c>
+      <c r="F104">
+        <v>5152.6499999999996</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>5137.5666666666666</v>
+      </c>
+      <c r="H104">
+        <v>5206.64471190929</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>5478.8679121633149</v>
+      </c>
+      <c r="K104">
+        <v>5290.7735539779096</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>19.048043806708119</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>147.64999999999964</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>250.05000000000018</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.59048190361927422</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>5420.0853381643337</v>
+      </c>
+      <c r="W104">
+        <v>5408.0584104651452</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>12.026927699188491</v>
+      </c>
+      <c r="Y104">
+        <v>96.258455666825483</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>5220</v>
+      </c>
+      <c r="D105">
+        <v>5238.1000000000004</v>
+      </c>
+      <c r="E105">
+        <v>5045</v>
+      </c>
+      <c r="F105">
+        <v>5045</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>5109.3666666666668</v>
+      </c>
+      <c r="H105">
+        <v>5158.0056892879784</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>5425.3639316825784</v>
+      </c>
+      <c r="K105">
+        <v>5236.1572086494853</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>14.792705374023368</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>193.10000000000036</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>5362.3799015236673</v>
+      </c>
+      <c r="W105">
+        <v>5381.1651948751341</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-18.785293351466862</v>
+      </c>
+      <c r="Y105">
+        <v>73.249705863167009</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>5216.1000000000004</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>5164.3500000000004</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>5141.55</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>5118.75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>5070</v>
+      </c>
+      <c r="D106">
+        <v>5131.3999999999996</v>
+      </c>
+      <c r="E106">
+        <v>5022.1499999999996</v>
+      </c>
+      <c r="F106">
+        <v>5044</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>5065.8499999999995</v>
+      </c>
+      <c r="H106">
+        <v>5111.9278446439894</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>5360.0386135308945</v>
+      </c>
+      <c r="K106">
+        <v>5188.6000511718221</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>14.754431521022651</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>21.850000000000364</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>109.25</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.20000000000000334</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>5313.3983782123341</v>
+      </c>
+      <c r="W106">
+        <v>5356.1899952547537</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-42.791617042419603</v>
+      </c>
+      <c r="Y106">
+        <v>50.041441282049689</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>5099</v>
+      </c>
+      <c r="D107">
+        <v>5246</v>
+      </c>
+      <c r="E107">
+        <v>5062.6000000000004</v>
+      </c>
+      <c r="F107">
+        <v>5175</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>5161.2</v>
+      </c>
+      <c r="H107">
+        <v>5136.5639223219951</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>5334.696699412918</v>
+      </c>
+      <c r="K107">
+        <v>5160.6000398003061</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>40.122998253568028</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>112.39999999999964</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>183.39999999999964</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.61286804798255101</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>5292.1063200258213</v>
+      </c>
+      <c r="W107">
+        <v>5342.7685141247721</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-50.662194098950749</v>
+      </c>
+      <c r="Y107">
+        <v>29.900714205849599</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
